--- a/backend/results/Munjal/Brake Disc, (Cav 7,8,9,10)Alto_Broken Mould.xlsx
+++ b/backend/results/Munjal/Brake Disc, (Cav 7,8,9,10)Alto_Broken Mould.xlsx
@@ -25,30 +25,30 @@
     <t>gcs</t>
   </si>
   <si>
+    <t>moisture</t>
+  </si>
+  <si>
     <t>active_clay</t>
   </si>
   <si>
-    <t>moisture</t>
-  </si>
-  <si>
     <t>compactibility</t>
   </si>
   <si>
     <t>Broken Mould %</t>
   </si>
   <si>
+    <t>gcs_bins</t>
+  </si>
+  <si>
     <t>active_clay_bins</t>
   </si>
   <si>
-    <t>gcs_bins</t>
+    <t>compactibility_bins</t>
   </si>
   <si>
     <t>moisture_bins</t>
   </si>
   <si>
-    <t>compactibility_bins</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -58,6 +58,30 @@
     <t>B</t>
   </si>
   <si>
+    <t>[1.642, 1.68)</t>
+  </si>
+  <si>
+    <t>[1.792, 1.83)</t>
+  </si>
+  <si>
+    <t>[1.718, 1.755)</t>
+  </si>
+  <si>
+    <t>[1.68, 1.718)</t>
+  </si>
+  <si>
+    <t>[1.755, 1.792)</t>
+  </si>
+  <si>
+    <t>[1.605, 1.642)</t>
+  </si>
+  <si>
+    <t>[1.568, 1.605)</t>
+  </si>
+  <si>
+    <t>[1.53, 1.568)</t>
+  </si>
+  <si>
     <t>[8.72, 8.735)</t>
   </si>
   <si>
@@ -85,28 +109,37 @@
     <t>[8.765, 8.78)</t>
   </si>
   <si>
-    <t>[1.642, 1.68)</t>
-  </si>
-  <si>
-    <t>[1.792, 1.83)</t>
-  </si>
-  <si>
-    <t>[1.718, 1.755)</t>
-  </si>
-  <si>
-    <t>[1.68, 1.718)</t>
-  </si>
-  <si>
-    <t>[1.755, 1.792)</t>
-  </si>
-  <si>
-    <t>[1.605, 1.642)</t>
-  </si>
-  <si>
-    <t>[1.568, 1.605)</t>
-  </si>
-  <si>
-    <t>[1.53, 1.568)</t>
+    <t>[36.591, 37.045)</t>
+  </si>
+  <si>
+    <t>[34.318, 34.773)</t>
+  </si>
+  <si>
+    <t>[35.682, 36.136)</t>
+  </si>
+  <si>
+    <t>[34.773, 35.227)</t>
+  </si>
+  <si>
+    <t>[33.864, 34.318)</t>
+  </si>
+  <si>
+    <t>[35.227, 35.682)</t>
+  </si>
+  <si>
+    <t>[36.136, 36.591)</t>
+  </si>
+  <si>
+    <t>[32.955, 33.409)</t>
+  </si>
+  <si>
+    <t>[33.409, 33.864)</t>
+  </si>
+  <si>
+    <t>[32.5, 32.955)</t>
+  </si>
+  <si>
+    <t>[37.045, 37.505)</t>
   </si>
   <si>
     <t>[2.649, 2.66)</t>
@@ -149,39 +182,6 @@
   </si>
   <si>
     <t>[2.535, 2.547)</t>
-  </si>
-  <si>
-    <t>[36.591, 37.045)</t>
-  </si>
-  <si>
-    <t>[34.318, 34.773)</t>
-  </si>
-  <si>
-    <t>[35.682, 36.136)</t>
-  </si>
-  <si>
-    <t>[34.773, 35.227)</t>
-  </si>
-  <si>
-    <t>[33.864, 34.318)</t>
-  </si>
-  <si>
-    <t>[35.227, 35.682)</t>
-  </si>
-  <si>
-    <t>[36.136, 36.591)</t>
-  </si>
-  <si>
-    <t>[32.955, 33.409)</t>
-  </si>
-  <si>
-    <t>[33.409, 33.864)</t>
-  </si>
-  <si>
-    <t>[32.5, 32.955)</t>
-  </si>
-  <si>
-    <t>[37.045, 37.505)</t>
   </si>
 </sst>
 </file>
@@ -543,3614 +543,3920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>45659</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.68</v>
-      </c>
-      <c r="D2">
-        <v>8.720000000000001</v>
       </c>
       <c r="E2">
         <v>2.65</v>
       </c>
       <c r="F2">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G2">
         <v>37</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>45660</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>1.81</v>
-      </c>
       <c r="D3">
-        <v>8.720000000000001</v>
+        <v>1.813333333333333</v>
       </c>
       <c r="E3">
         <v>2.62</v>
       </c>
       <c r="F3">
-        <v>34.67</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>34.66666666666666</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>45660</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.74</v>
-      </c>
-      <c r="D4">
-        <v>8.699999999999999</v>
       </c>
       <c r="E4">
         <v>2.62</v>
       </c>
       <c r="F4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G4">
         <v>36</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1.716666666666667</v>
+      </c>
+      <c r="E5">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="F5">
+        <v>8.706666666666665</v>
+      </c>
+      <c r="G5">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>45661</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1.72</v>
-      </c>
-      <c r="D5">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="E5">
-        <v>2.6</v>
-      </c>
-      <c r="F5">
-        <v>34.33</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>45661</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1.78</v>
-      </c>
       <c r="D6">
-        <v>8.710000000000001</v>
+        <v>1.775</v>
       </c>
       <c r="E6">
         <v>2.61</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>45663</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.66</v>
-      </c>
-      <c r="D7">
-        <v>8.699999999999999</v>
       </c>
       <c r="E7">
         <v>2.59</v>
       </c>
       <c r="F7">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G7">
         <v>37</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
       <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>45663</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.75</v>
-      </c>
-      <c r="D8">
-        <v>8.699999999999999</v>
       </c>
       <c r="E8">
         <v>2.65</v>
       </c>
       <c r="F8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G8">
         <v>37</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>45663</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.7</v>
-      </c>
-      <c r="D9">
-        <v>8.67</v>
       </c>
       <c r="E9">
         <v>2.56</v>
       </c>
       <c r="F9">
+        <v>8.67</v>
+      </c>
+      <c r="G9">
         <v>37</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>45664</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.72</v>
-      </c>
-      <c r="D10">
-        <v>8.68</v>
       </c>
       <c r="E10">
         <v>2.58</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>8.68</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>45664</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.74</v>
-      </c>
-      <c r="D11">
-        <v>8.699999999999999</v>
       </c>
       <c r="E11">
         <v>2.6</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
         <v>45664</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.71</v>
-      </c>
-      <c r="D12">
-        <v>8.65</v>
       </c>
       <c r="E12">
         <v>2.58</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>8.65</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>45665</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.68</v>
-      </c>
-      <c r="D13">
-        <v>8.68</v>
       </c>
       <c r="E13">
         <v>2.62</v>
       </c>
       <c r="F13">
+        <v>8.68</v>
+      </c>
+      <c r="G13">
         <v>36</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
         <v>45665</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>1.72</v>
-      </c>
       <c r="D14">
-        <v>8.699999999999999</v>
+        <v>1.715</v>
       </c>
       <c r="E14">
         <v>2.41</v>
       </c>
       <c r="F14">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G14">
         <v>35.5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
         <v>45666</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.62</v>
-      </c>
-      <c r="D15">
-        <v>8.69</v>
       </c>
       <c r="E15">
         <v>2.62</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>8.69</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>45666</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.68</v>
-      </c>
-      <c r="D16">
-        <v>8.65</v>
       </c>
       <c r="E16">
         <v>2.62</v>
       </c>
       <c r="F16">
+        <v>8.65</v>
+      </c>
+      <c r="G16">
         <v>36</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
         <v>45666</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.73</v>
-      </c>
-      <c r="D17">
-        <v>8.67</v>
       </c>
       <c r="E17">
         <v>2.57</v>
       </c>
       <c r="F17">
+        <v>8.67</v>
+      </c>
+      <c r="G17">
         <v>36</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
       <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
         <v>45667</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.64</v>
-      </c>
-      <c r="D18">
-        <v>8.67</v>
       </c>
       <c r="E18">
         <v>2.64</v>
       </c>
       <c r="F18">
+        <v>8.67</v>
+      </c>
+      <c r="G18">
         <v>37</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+      <c r="B19" s="2">
         <v>45667</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.68</v>
-      </c>
-      <c r="D19">
-        <v>8.69</v>
       </c>
       <c r="E19">
         <v>2.62</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>8.69</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+        <v>34</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>45668</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.74</v>
-      </c>
-      <c r="D20">
-        <v>8.69</v>
       </c>
       <c r="E20">
         <v>2.64</v>
       </c>
       <c r="F20">
+        <v>8.69</v>
+      </c>
+      <c r="G20">
         <v>36</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
         <v>45668</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.69</v>
-      </c>
-      <c r="D21">
-        <v>8.699999999999999</v>
       </c>
       <c r="E21">
         <v>2.64</v>
       </c>
       <c r="F21">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G21">
         <v>37</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <v>45668</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.75</v>
-      </c>
-      <c r="D22">
-        <v>8.66</v>
       </c>
       <c r="E22">
         <v>2.58</v>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>8.66</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>1.686666666666667</v>
+      </c>
+      <c r="E23">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F23">
+        <v>8.693333333333333</v>
+      </c>
+      <c r="G23">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
         <v>45671</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>1.69</v>
-      </c>
-      <c r="D23">
-        <v>8.69</v>
-      </c>
-      <c r="E23">
-        <v>2.61</v>
-      </c>
-      <c r="F23">
-        <v>34.67</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
-        <v>45671</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.77</v>
-      </c>
-      <c r="D24">
-        <v>8.65</v>
       </c>
       <c r="E24">
         <v>2.62</v>
       </c>
       <c r="F24">
+        <v>8.65</v>
+      </c>
+      <c r="G24">
         <v>36</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
       <c r="K24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
         <v>45672</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>1.69</v>
-      </c>
       <c r="D25">
-        <v>8.640000000000001</v>
+        <v>1.695</v>
       </c>
       <c r="E25">
         <v>2.62</v>
       </c>
       <c r="F25">
-        <v>35</v>
+        <v>8.635</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <v>45673</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.64</v>
-      </c>
-      <c r="D26">
-        <v>8.66</v>
       </c>
       <c r="E26">
         <v>2.61</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>8.655000000000001</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
         <v>45673</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.77</v>
-      </c>
-      <c r="D27">
-        <v>8.640000000000001</v>
       </c>
       <c r="E27">
         <v>2.62</v>
       </c>
       <c r="F27">
-        <v>35</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
         <v>45674</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.67</v>
-      </c>
-      <c r="D28">
-        <v>8.65</v>
       </c>
       <c r="E28">
         <v>2.62</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>8.65</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
         <v>45674</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.74</v>
-      </c>
-      <c r="D29">
-        <v>8.66</v>
       </c>
       <c r="E29">
         <v>2.62</v>
       </c>
       <c r="F29">
+        <v>8.66</v>
+      </c>
+      <c r="G29">
         <v>36</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
       <c r="K29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
         <v>45675</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.72</v>
-      </c>
-      <c r="D30">
-        <v>8.67</v>
       </c>
       <c r="E30">
         <v>2.6</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>8.67</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
         <v>25</v>
       </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
       <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
         <v>45675</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.69</v>
-      </c>
-      <c r="D31">
-        <v>8.65</v>
       </c>
       <c r="E31">
         <v>2.6</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>8.65</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
         <v>45677</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.72</v>
-      </c>
-      <c r="D32">
-        <v>8.699999999999999</v>
       </c>
       <c r="E32">
         <v>2.65</v>
       </c>
       <c r="F32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G32">
         <v>37</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
         <v>31</v>
       </c>
-      <c r="K32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
         <v>45677</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.67</v>
-      </c>
-      <c r="D33">
-        <v>8.710000000000001</v>
       </c>
       <c r="E33">
         <v>2.59</v>
       </c>
       <c r="F33">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G33">
         <v>36</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
         <v>45678</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
-        <v>1.72</v>
-      </c>
       <c r="D34">
-        <v>8.710000000000001</v>
+        <v>1.725</v>
       </c>
       <c r="E34">
         <v>2.62</v>
       </c>
       <c r="F34">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G34">
         <v>35.5</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>16</v>
       </c>
-      <c r="I34" t="s">
-        <v>25</v>
-      </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
         <v>45678</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.78</v>
-      </c>
-      <c r="D35">
-        <v>8.699999999999999</v>
       </c>
       <c r="E35">
         <v>2.63</v>
       </c>
       <c r="F35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G35">
         <v>36</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
         <v>45678</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.76</v>
-      </c>
-      <c r="D36">
-        <v>8.699999999999999</v>
       </c>
       <c r="E36">
         <v>2.64</v>
       </c>
       <c r="F36">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G36">
         <v>36</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
         <v>45679</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C37">
-        <v>1.74</v>
-      </c>
       <c r="D37">
-        <v>8.710000000000001</v>
+        <v>1.745</v>
       </c>
       <c r="E37">
         <v>2.62</v>
       </c>
       <c r="F37">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G37">
         <v>36</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" t="s">
-        <v>25</v>
-      </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
         <v>45679</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.79</v>
-      </c>
-      <c r="D38">
-        <v>8.74</v>
       </c>
       <c r="E38">
         <v>2.63</v>
       </c>
       <c r="F38">
+        <v>8.74</v>
+      </c>
+      <c r="G38">
         <v>36</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
         <v>45680</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.58</v>
-      </c>
-      <c r="D39">
-        <v>8.699999999999999</v>
       </c>
       <c r="E39">
         <v>2.62</v>
       </c>
       <c r="F39">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
         <v>45680</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <v>1.723333333333333</v>
+      </c>
+      <c r="E40">
+        <v>2.636666666666667</v>
+      </c>
+      <c r="F40">
+        <v>8.65</v>
+      </c>
+      <c r="G40">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
         <v>1.72</v>
-      </c>
-      <c r="D40">
-        <v>8.65</v>
-      </c>
-      <c r="E40">
-        <v>2.64</v>
-      </c>
-      <c r="F40">
-        <v>36.33</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>1.72</v>
-      </c>
-      <c r="D41">
-        <v>8.65</v>
       </c>
       <c r="E41">
         <v>2.62</v>
       </c>
       <c r="F41">
-        <v>35</v>
+        <v>8.65</v>
       </c>
       <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
         <v>45682</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.72</v>
-      </c>
-      <c r="D42">
-        <v>8.710000000000001</v>
       </c>
       <c r="E42">
         <v>2.64</v>
       </c>
       <c r="F42">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G42">
         <v>36</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>16</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45682</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>1.706666666666667</v>
+      </c>
+      <c r="E43">
+        <v>2.596666666666667</v>
+      </c>
+      <c r="F43">
+        <v>8.703333333333333</v>
+      </c>
+      <c r="G43">
+        <v>36</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45684</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1.693333333333333</v>
+      </c>
+      <c r="E44">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="F44">
+        <v>8.663333333333334</v>
+      </c>
+      <c r="G44">
+        <v>35.33333333333334</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
-        <v>45682</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>1.71</v>
-      </c>
-      <c r="D43">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E43">
-        <v>2.6</v>
-      </c>
-      <c r="F43">
+      <c r="K44" t="s">
         <v>36</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>1.69</v>
-      </c>
-      <c r="D44">
-        <v>8.66</v>
-      </c>
-      <c r="E44">
-        <v>2.58</v>
-      </c>
-      <c r="F44">
-        <v>35.33</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" t="s">
-        <v>34</v>
-      </c>
-      <c r="K44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
         <v>45685</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1.74</v>
-      </c>
-      <c r="D45">
-        <v>8.720000000000001</v>
       </c>
       <c r="E45">
         <v>2.59</v>
       </c>
       <c r="F45">
-        <v>35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
         <v>45686</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.74</v>
-      </c>
-      <c r="D46">
-        <v>8.710000000000001</v>
       </c>
       <c r="E46">
         <v>2.62</v>
       </c>
       <c r="F46">
-        <v>35</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>16</v>
       </c>
-      <c r="I46" t="s">
-        <v>25</v>
-      </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+        <v>34</v>
+      </c>
+      <c r="L46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
         <v>45686</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.83</v>
-      </c>
-      <c r="D47">
-        <v>8.699999999999999</v>
       </c>
       <c r="E47">
         <v>2.62</v>
       </c>
       <c r="F47">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G47">
         <v>37</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>15</v>
       </c>
-      <c r="I47" t="s">
-        <v>24</v>
-      </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+        <v>31</v>
+      </c>
+      <c r="L47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
         <v>45686</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.75</v>
-      </c>
-      <c r="D48">
-        <v>8.720000000000001</v>
       </c>
       <c r="E48">
         <v>2.57</v>
       </c>
       <c r="F48">
-        <v>35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
         <v>45688</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.82</v>
-      </c>
-      <c r="D49">
-        <v>8.720000000000001</v>
       </c>
       <c r="E49">
         <v>2.63</v>
       </c>
       <c r="F49">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G49">
         <v>36</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1.703333333333333</v>
+      </c>
+      <c r="E50">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F50">
+        <v>8.66</v>
+      </c>
+      <c r="G50">
+        <v>35</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>1.66</v>
+      </c>
+      <c r="E51">
+        <v>2.595</v>
+      </c>
+      <c r="F51">
+        <v>8.645</v>
+      </c>
+      <c r="G51">
+        <v>34.5</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>14</v>
       </c>
-      <c r="I49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45719</v>
+      </c>
+      <c r="C52" t="s">
         <v>13</v>
       </c>
-      <c r="C50">
-        <v>1.7</v>
-      </c>
-      <c r="D50">
-        <v>8.66</v>
-      </c>
-      <c r="E50">
-        <v>2.61</v>
-      </c>
-      <c r="F50">
-        <v>35</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>1.66</v>
-      </c>
-      <c r="D51">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="E51">
-        <v>2.6</v>
-      </c>
-      <c r="F51">
-        <v>34.5</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
-        <v>45719</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52">
+      <c r="D52">
         <v>1.61</v>
-      </c>
-      <c r="D52">
-        <v>8.67</v>
       </c>
       <c r="E52">
         <v>2.58</v>
       </c>
       <c r="F52">
+        <v>8.67</v>
+      </c>
+      <c r="G52">
         <v>35.5</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>17</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" t="s">
         <v>36</v>
       </c>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+      <c r="L52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
         <v>45719</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>1.58</v>
-      </c>
-      <c r="D53">
-        <v>8.67</v>
       </c>
       <c r="E53">
         <v>2.62</v>
       </c>
       <c r="F53">
+        <v>8.67</v>
+      </c>
+      <c r="G53">
         <v>36</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>17</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
         <v>45720</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>12</v>
       </c>
-      <c r="C54">
-        <v>1.66</v>
-      </c>
       <c r="D54">
-        <v>8.66</v>
+        <v>1.655</v>
       </c>
       <c r="E54">
         <v>2.61</v>
       </c>
       <c r="F54">
+        <v>8.664999999999999</v>
+      </c>
+      <c r="G54">
         <v>34.5</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
         <v>45720</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1.57</v>
-      </c>
-      <c r="D55">
-        <v>8.67</v>
       </c>
       <c r="E55">
         <v>2.6</v>
       </c>
       <c r="F55">
-        <v>34</v>
+        <v>8.67</v>
       </c>
       <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
         <v>45721</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1.66</v>
-      </c>
-      <c r="D56">
-        <v>8.720000000000001</v>
       </c>
       <c r="E56">
         <v>2.57</v>
       </c>
       <c r="F56">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G56">
         <v>36</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" t="s">
-        <v>23</v>
-      </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2">
         <v>45721</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>1.69</v>
-      </c>
-      <c r="D57">
-        <v>8.69</v>
       </c>
       <c r="E57">
         <v>2.62</v>
       </c>
       <c r="F57">
-        <v>34</v>
+        <v>8.69</v>
       </c>
       <c r="G57">
-        <v>0.26</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>0.2554278416347382</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+        <v>35</v>
+      </c>
+      <c r="L57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
         <v>45722</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>1.65</v>
-      </c>
-      <c r="D58">
-        <v>8.69</v>
       </c>
       <c r="E58">
         <v>2.62</v>
       </c>
       <c r="F58">
+        <v>8.69</v>
+      </c>
+      <c r="G58">
         <v>36</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
         <v>23</v>
       </c>
-      <c r="J58" t="s">
-        <v>32</v>
-      </c>
       <c r="K58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
         <v>45722</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>1.53</v>
-      </c>
-      <c r="D59">
-        <v>8.66</v>
       </c>
       <c r="E59">
         <v>2.66</v>
       </c>
       <c r="F59">
-        <v>35</v>
+        <v>8.66</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
         <v>45723</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1.69</v>
-      </c>
-      <c r="D60">
-        <v>8.699999999999999</v>
       </c>
       <c r="E60">
         <v>2.59</v>
       </c>
       <c r="F60">
+        <v>8.705</v>
+      </c>
+      <c r="G60">
         <v>35.5</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+        <v>36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
         <v>45723</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.61</v>
-      </c>
-      <c r="D61">
-        <v>8.65</v>
       </c>
       <c r="E61">
         <v>2.6</v>
       </c>
       <c r="F61">
-        <v>35</v>
+        <v>8.65</v>
       </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
       <c r="J61" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
         <v>45724</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1.55</v>
-      </c>
-      <c r="D62">
-        <v>8.66</v>
       </c>
       <c r="E62">
         <v>2.65</v>
       </c>
       <c r="F62">
-        <v>35</v>
+        <v>8.66</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2">
         <v>45725</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1.68</v>
-      </c>
-      <c r="D63">
-        <v>8.699999999999999</v>
       </c>
       <c r="E63">
         <v>2.6</v>
       </c>
       <c r="F63">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
         <v>23</v>
       </c>
-      <c r="J63" t="s">
-        <v>37</v>
-      </c>
       <c r="K63" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
         <v>45726</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>12</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>1.72</v>
-      </c>
-      <c r="D64">
-        <v>8.699999999999999</v>
       </c>
       <c r="E64">
         <v>2.6</v>
       </c>
       <c r="F64">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
         <v>15</v>
       </c>
-      <c r="I64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+      <c r="B65" s="2">
         <v>45726</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>1.73</v>
-      </c>
-      <c r="D65">
-        <v>8.720000000000001</v>
       </c>
       <c r="E65">
         <v>2.61</v>
       </c>
       <c r="F65">
-        <v>34</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
         <v>45727</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1.74</v>
-      </c>
-      <c r="D66">
-        <v>8.699999999999999</v>
       </c>
       <c r="E66">
         <v>2.6</v>
       </c>
       <c r="F66">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
         <v>45727</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1.78</v>
-      </c>
-      <c r="D67">
-        <v>8.720000000000001</v>
       </c>
       <c r="E67">
         <v>2.61</v>
       </c>
       <c r="F67">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G67">
         <v>33</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+        <v>38</v>
+      </c>
+      <c r="L67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2">
         <v>45727</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>1.62</v>
-      </c>
-      <c r="D68">
-        <v>8.699999999999999</v>
       </c>
       <c r="E68">
         <v>2.6</v>
       </c>
       <c r="F68">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2">
         <v>45728</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>1.68</v>
-      </c>
-      <c r="D69">
-        <v>8.699999999999999</v>
       </c>
       <c r="E69">
         <v>2.6</v>
       </c>
       <c r="F69">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
         <v>23</v>
       </c>
-      <c r="J69" t="s">
-        <v>37</v>
-      </c>
       <c r="K69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
+      <c r="B70" s="2">
         <v>45728</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>1.58</v>
-      </c>
-      <c r="D70">
-        <v>8.699999999999999</v>
       </c>
       <c r="E70">
         <v>2.63</v>
       </c>
       <c r="F70">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+        <v>35</v>
+      </c>
+      <c r="L70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" s="2">
         <v>45729</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>12</v>
       </c>
-      <c r="C71">
-        <v>1.65</v>
-      </c>
       <c r="D71">
-        <v>8.699999999999999</v>
+        <v>1.655</v>
       </c>
       <c r="E71">
         <v>2.61</v>
       </c>
       <c r="F71">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G71">
         <v>35.5</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
         <v>23</v>
       </c>
-      <c r="J71" t="s">
-        <v>33</v>
-      </c>
       <c r="K71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+        <v>36</v>
+      </c>
+      <c r="L71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" s="2">
         <v>45729</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.65</v>
-      </c>
-      <c r="D72">
-        <v>8.710000000000001</v>
       </c>
       <c r="E72">
         <v>2.61</v>
       </c>
       <c r="F72">
-        <v>35</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
         <v>23</v>
       </c>
-      <c r="J72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+      <c r="B73" s="2">
         <v>45732</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>13</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1.63</v>
-      </c>
-      <c r="D73">
-        <v>8.69</v>
       </c>
       <c r="E73">
         <v>2.6</v>
       </c>
       <c r="F73">
+        <v>8.69</v>
+      </c>
+      <c r="G73">
         <v>36</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+        <v>33</v>
+      </c>
+      <c r="L73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2">
         <v>45732</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1.61</v>
       </c>
-      <c r="D74">
+      <c r="E74">
+        <v>2.595</v>
+      </c>
+      <c r="F74">
         <v>8.69</v>
       </c>
-      <c r="E74">
-        <v>2.6</v>
-      </c>
-      <c r="F74">
+      <c r="G74">
         <v>34.5</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J74" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>25</v>
+      </c>
+      <c r="B75" s="2">
         <v>45733</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.61</v>
-      </c>
-      <c r="D75">
-        <v>8.720000000000001</v>
       </c>
       <c r="E75">
         <v>2.61</v>
       </c>
       <c r="F75">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G75">
         <v>35.5</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+        <v>36</v>
+      </c>
+      <c r="L75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2">
         <v>45733</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>13</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.6</v>
-      </c>
-      <c r="D76">
-        <v>8.699999999999999</v>
       </c>
       <c r="E76">
         <v>2.6</v>
       </c>
       <c r="F76">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+        <v>35</v>
+      </c>
+      <c r="L76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>27</v>
+      </c>
+      <c r="B77" s="2">
         <v>45734</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>12</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1.73</v>
-      </c>
-      <c r="D77">
-        <v>8.710000000000001</v>
       </c>
       <c r="E77">
         <v>2.6</v>
       </c>
       <c r="F77">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G77">
         <v>33</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
         <v>16</v>
       </c>
-      <c r="I77" t="s">
-        <v>25</v>
-      </c>
       <c r="J77" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+        <v>38</v>
+      </c>
+      <c r="L77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>28</v>
+      </c>
+      <c r="B78" s="2">
         <v>45734</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1.69</v>
-      </c>
-      <c r="D78">
-        <v>8.699999999999999</v>
       </c>
       <c r="E78">
         <v>2.58</v>
       </c>
       <c r="F78">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+        <v>35</v>
+      </c>
+      <c r="L78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>29</v>
+      </c>
+      <c r="B79" s="2">
         <v>45735</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1.68</v>
-      </c>
-      <c r="D79">
-        <v>8.73</v>
       </c>
       <c r="E79">
         <v>2.52</v>
       </c>
       <c r="F79">
+        <v>8.73</v>
+      </c>
+      <c r="G79">
         <v>33</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" t="s">
-        <v>23</v>
-      </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>30</v>
+      </c>
+      <c r="B80" s="2">
         <v>45735</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>13</v>
       </c>
-      <c r="C80">
-        <v>1.66</v>
-      </c>
       <c r="D80">
-        <v>8.699999999999999</v>
+        <v>1.655</v>
       </c>
       <c r="E80">
         <v>2.58</v>
       </c>
       <c r="F80">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
         <v>23</v>
       </c>
-      <c r="J80" t="s">
-        <v>36</v>
-      </c>
       <c r="K80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+        <v>35</v>
+      </c>
+      <c r="L80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>31</v>
+      </c>
+      <c r="B81" s="2">
         <v>45735</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1.68</v>
-      </c>
-      <c r="D81">
-        <v>8.779999999999999</v>
       </c>
       <c r="E81">
         <v>2.59</v>
       </c>
       <c r="F81">
-        <v>34</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+        <v>35</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>32</v>
+      </c>
+      <c r="B82" s="2">
         <v>45736</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>13</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1.72</v>
-      </c>
-      <c r="D82">
-        <v>8.720000000000001</v>
       </c>
       <c r="E82">
         <v>2.6</v>
       </c>
       <c r="F82">
-        <v>35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J82" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>33</v>
+      </c>
+      <c r="B83" s="2">
         <v>45736</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>11</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1.69</v>
-      </c>
-      <c r="D83">
-        <v>8.74</v>
       </c>
       <c r="E83">
         <v>2.32</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>8.74</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+        <v>34</v>
+      </c>
+      <c r="L83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>34</v>
+      </c>
+      <c r="B84" s="2">
         <v>45737</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>12</v>
       </c>
-      <c r="C84">
-        <v>1.77</v>
-      </c>
       <c r="D84">
-        <v>8.720000000000001</v>
+        <v>1.7685</v>
       </c>
       <c r="E84">
         <v>2.55</v>
       </c>
       <c r="F84">
+        <v>8.715</v>
+      </c>
+      <c r="G84">
         <v>33.5</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+        <v>39</v>
+      </c>
+      <c r="L84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>35</v>
+      </c>
+      <c r="B85" s="2">
         <v>45737</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>11</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>1.64</v>
-      </c>
-      <c r="D85">
-        <v>8.699999999999999</v>
       </c>
       <c r="E85">
         <v>2.61</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+        <v>34</v>
+      </c>
+      <c r="L85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2">
         <v>45738</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>13</v>
       </c>
-      <c r="C86">
-        <v>1.62</v>
-      </c>
       <c r="D86">
+        <v>1.625</v>
+      </c>
+      <c r="E86">
+        <v>2.585</v>
+      </c>
+      <c r="F86">
         <v>8.699999999999999</v>
       </c>
-      <c r="E86">
-        <v>2.58</v>
-      </c>
-      <c r="F86">
+      <c r="G86">
         <v>34.5</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+        <v>32</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>37</v>
+      </c>
+      <c r="B87" s="2">
         <v>45738</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1.57</v>
-      </c>
-      <c r="D87">
-        <v>8.73</v>
       </c>
       <c r="E87">
         <v>2.58</v>
       </c>
       <c r="F87">
-        <v>34</v>
+        <v>8.73</v>
       </c>
       <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+        <v>35</v>
+      </c>
+      <c r="L87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>38</v>
+      </c>
+      <c r="B88" s="2">
         <v>45740</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>1.61</v>
-      </c>
-      <c r="D88">
-        <v>8.699999999999999</v>
       </c>
       <c r="E88">
         <v>2.58</v>
       </c>
       <c r="F88">
-        <v>34</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J88" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+        <v>35</v>
+      </c>
+      <c r="L88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>39</v>
+      </c>
+      <c r="B89" s="2">
         <v>45740</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1.69</v>
-      </c>
-      <c r="D89">
-        <v>8.720000000000001</v>
       </c>
       <c r="E89">
         <v>2.59</v>
       </c>
       <c r="F89">
-        <v>35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+        <v>34</v>
+      </c>
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>40</v>
+      </c>
+      <c r="B90" s="2">
         <v>45740</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.62</v>
-      </c>
-      <c r="D90">
-        <v>8.710000000000001</v>
       </c>
       <c r="E90">
         <v>2.6</v>
       </c>
       <c r="F90">
-        <v>35</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K90" t="s">
+        <v>34</v>
+      </c>
+      <c r="L90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>41</v>
+      </c>
+      <c r="B91" s="2">
         <v>45741</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.68</v>
-      </c>
-      <c r="D91">
-        <v>8.699999999999999</v>
       </c>
       <c r="E91">
         <v>2.6</v>
       </c>
       <c r="F91">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G91">
         <v>33</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>15</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" t="s">
-        <v>37</v>
-      </c>
       <c r="K91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+        <v>38</v>
+      </c>
+      <c r="L91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>42</v>
+      </c>
+      <c r="B92" s="2">
         <v>45741</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="C92">
-        <v>1.64</v>
-      </c>
       <c r="D92">
+        <v>1.635</v>
+      </c>
+      <c r="E92">
+        <v>2.555</v>
+      </c>
+      <c r="F92">
         <v>8.699999999999999</v>
       </c>
-      <c r="E92">
-        <v>2.55</v>
-      </c>
-      <c r="F92">
+      <c r="G92">
         <v>32.5</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>15</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
         <v>43</v>
       </c>
-      <c r="K92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+      <c r="B93" s="2">
         <v>45741</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.68</v>
-      </c>
-      <c r="D93">
-        <v>8.720000000000001</v>
       </c>
       <c r="E93">
         <v>2.6</v>
       </c>
       <c r="F93">
-        <v>34</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
         <v>14</v>
       </c>
-      <c r="I93" t="s">
-        <v>23</v>
-      </c>
       <c r="J93" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+        <v>35</v>
+      </c>
+      <c r="L93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>44</v>
+      </c>
+      <c r="B94" s="2">
         <v>45742</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>12</v>
       </c>
-      <c r="C94">
-        <v>1.7</v>
-      </c>
       <c r="D94">
+        <v>1.705</v>
+      </c>
+      <c r="E94">
+        <v>2.545</v>
+      </c>
+      <c r="F94">
         <v>8.720000000000001</v>
       </c>
-      <c r="E94">
-        <v>2.54</v>
-      </c>
-      <c r="F94">
+      <c r="G94">
         <v>33</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+        <v>38</v>
+      </c>
+      <c r="L94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>45</v>
+      </c>
+      <c r="B95" s="2">
         <v>45742</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.64</v>
-      </c>
-      <c r="D95">
-        <v>8.68</v>
       </c>
       <c r="E95">
         <v>2.59</v>
       </c>
       <c r="F95">
+        <v>8.675000000000001</v>
+      </c>
+      <c r="G95">
         <v>34.5</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
-        <v>18</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J95" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K95" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+      <c r="B96" s="2">
         <v>45742</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.64</v>
       </c>
-      <c r="D96">
-        <v>8.699999999999999</v>
-      </c>
       <c r="E96">
-        <v>2.63</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="F96">
-        <v>34.67</v>
+        <v>8.703333333333333</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
+        <v>34.66666666666666</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+        <v>32</v>
+      </c>
+      <c r="L96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>47</v>
+      </c>
+      <c r="B97" s="2">
         <v>45743</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>12</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.77</v>
-      </c>
-      <c r="D97">
-        <v>8.699999999999999</v>
       </c>
       <c r="E97">
         <v>2.58</v>
       </c>
       <c r="F97">
-        <v>35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
+        <v>34</v>
+      </c>
+      <c r="L97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+      <c r="B98" s="2">
         <v>45743</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>11</v>
       </c>
-      <c r="C98">
-        <v>1.69</v>
-      </c>
       <c r="D98">
-        <v>8.67</v>
+        <v>1.695</v>
       </c>
       <c r="E98">
         <v>2.58</v>
       </c>
       <c r="F98">
+        <v>8.67</v>
+      </c>
+      <c r="G98">
         <v>33.5</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
         <v>17</v>
       </c>
-      <c r="I98" t="s">
-        <v>26</v>
-      </c>
       <c r="J98" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+        <v>39</v>
+      </c>
+      <c r="L98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>49</v>
+      </c>
+      <c r="B99" s="2">
         <v>45744</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>11</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.6</v>
-      </c>
-      <c r="D99">
-        <v>8.67</v>
       </c>
       <c r="E99">
         <v>2.6</v>
       </c>
       <c r="F99">
+        <v>8.67</v>
+      </c>
+      <c r="G99">
         <v>37.5</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>17</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+        <v>41</v>
+      </c>
+      <c r="L99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>50</v>
+      </c>
+      <c r="B100" s="2">
         <v>45745</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>13</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.62</v>
-      </c>
-      <c r="D100">
-        <v>8.67</v>
       </c>
       <c r="E100">
         <v>2.62</v>
       </c>
       <c r="F100">
+        <v>8.67</v>
+      </c>
+      <c r="G100">
         <v>36</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>17</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J100" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+        <v>33</v>
+      </c>
+      <c r="L100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>51</v>
+      </c>
+      <c r="B101" s="2">
         <v>45745</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>11</v>
       </c>
-      <c r="C101">
-        <v>1.63</v>
-      </c>
       <c r="D101">
-        <v>8.65</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="E101">
-        <v>2.59</v>
+        <v>2.591666666666667</v>
       </c>
       <c r="F101">
-        <v>36.33</v>
+        <v>8.651666666666667</v>
       </c>
       <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
         <v>19</v>
       </c>
-      <c r="I101" t="s">
-        <v>28</v>
-      </c>
       <c r="J101" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K101" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+        <v>37</v>
+      </c>
+      <c r="L101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>52</v>
+      </c>
+      <c r="B102" s="2">
         <v>45746</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.64</v>
-      </c>
-      <c r="D102">
-        <v>8.68</v>
       </c>
       <c r="E102">
         <v>2.6</v>
       </c>
       <c r="F102">
-        <v>34</v>
+        <v>8.68</v>
       </c>
       <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J102" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+        <v>35</v>
+      </c>
+      <c r="L102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>53</v>
+      </c>
+      <c r="B103" s="2">
         <v>45746</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>13</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.72</v>
-      </c>
-      <c r="D103">
-        <v>8.67</v>
       </c>
       <c r="E103">
         <v>2.6</v>
       </c>
       <c r="F103">
-        <v>35</v>
+        <v>8.67</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" t="s">
-        <v>37</v>
-      </c>
       <c r="K103" t="s">
+        <v>34</v>
+      </c>
+      <c r="L103" t="s">
         <v>48</v>
       </c>
     </row>
